--- a/src/assets/data/Example_Teilnehmerliste.xlsx
+++ b/src/assets/data/Example_Teilnehmerliste.xlsx
@@ -938,13 +938,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1291,133 +1291,133 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1425,28 +1425,28 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1000000</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1454,28 +1454,28 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="4">
+        <v>1000001</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1483,28 +1483,28 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4">
+        <v>1000002</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1512,28 +1512,28 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4">
+        <v>1000003</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1541,28 +1541,28 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4">
+        <v>1000004</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1570,28 +1570,28 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="4">
+        <v>1000005</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1599,28 +1599,28 @@
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="4">
+        <v>1000006</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="F15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1628,28 +1628,28 @@
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="4">
+        <v>1000007</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1657,28 +1657,28 @@
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="4">
+        <v>1000008</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1686,28 +1686,28 @@
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="4">
+        <v>1000009</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1715,28 +1715,28 @@
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4">
+        <v>1000010</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1744,28 +1744,28 @@
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="4">
+        <v>1000011</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1773,28 +1773,28 @@
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="4">
+        <v>1000012</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="F21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1802,28 +1802,28 @@
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="4">
+        <v>1000013</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1831,28 +1831,28 @@
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="4">
+        <v>1000014</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="5">
-        <v>1</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="F23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1860,28 +1860,28 @@
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="4">
+        <v>1000015</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="F24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1889,28 +1889,28 @@
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="4">
+        <v>1000016</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="F25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1918,28 +1918,28 @@
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="4">
+        <v>1000017</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="5">
-        <v>1</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="F26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1947,28 +1947,28 @@
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="4">
+        <v>1000018</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5" t="s">
+      <c r="F27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1976,28 +1976,28 @@
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="4">
+        <v>1000019</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="F28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2005,28 +2005,28 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="4">
+        <v>1000020</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="F29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2034,28 +2034,28 @@
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="4">
+        <v>1000021</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="F30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2063,28 +2063,28 @@
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="4">
+        <v>1000022</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5" t="s">
+      <c r="F31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2092,28 +2092,28 @@
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="4">
+        <v>1000023</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5" t="s">
+      <c r="F32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2121,28 +2121,28 @@
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="4">
+        <v>1000024</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5" t="s">
+      <c r="F33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2150,28 +2150,28 @@
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="4">
+        <v>1000025</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5" t="s">
+      <c r="F34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2179,28 +2179,28 @@
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35" s="4">
+        <v>1000026</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5" t="s">
+      <c r="F35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2208,28 +2208,28 @@
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="4">
+        <v>1000027</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5" t="s">
+      <c r="F36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2252,60 +2252,60 @@
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="B39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="B40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="B38:I38"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
